--- a/xlsx/预测_intext.xlsx
+++ b/xlsx/预测_intext.xlsx
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E4%BE%86</t>
   </si>
   <si>
-    <t>未來</t>
+    <t>未来</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E8%A8%80</t>
   </si>
   <si>
-    <t>預言</t>
+    <t>预言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%9F%A5</t>
   </si>
   <si>
-    <t>預知</t>
+    <t>预知</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A0%E5%8D%9C</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%96%B9%E6%B3%95</t>
   </si>
   <si>
-    <t>科學方法</t>
+    <t>科学方法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%81%E4%BC%AA</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B0%A3%E5%A0%B1%E5%91%8A</t>
   </si>
   <si>
-    <t>天氣報告</t>
+    <t>天气报告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E6%B8%AC</t>
